--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06945599999999999</v>
+        <v>0.6957970000000001</v>
       </c>
       <c r="N2">
-        <v>0.208368</v>
+        <v>2.087391</v>
       </c>
       <c r="O2">
-        <v>0.0162740978965466</v>
+        <v>0.9232770860517062</v>
       </c>
       <c r="P2">
-        <v>0.0162740978965466</v>
+        <v>0.9232770860517063</v>
       </c>
       <c r="Q2">
-        <v>1.517597532512</v>
+        <v>4.318126850887334</v>
       </c>
       <c r="R2">
-        <v>13.658377792608</v>
+        <v>38.86314165798601</v>
       </c>
       <c r="S2">
-        <v>0.0008169627887268697</v>
+        <v>0.01386507397149989</v>
       </c>
       <c r="T2">
-        <v>0.0008169627887268697</v>
+        <v>0.01386507397149989</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6957970000000001</v>
+        <v>0.05781966666666667</v>
       </c>
       <c r="N3">
-        <v>2.087391</v>
+        <v>0.173459</v>
       </c>
       <c r="O3">
-        <v>0.1630308179872645</v>
+        <v>0.07672291394829377</v>
       </c>
       <c r="P3">
-        <v>0.1630308179872644</v>
+        <v>0.07672291394829378</v>
       </c>
       <c r="Q3">
-        <v>15.20300348896067</v>
+        <v>0.3588297379015555</v>
       </c>
       <c r="R3">
-        <v>136.827031400646</v>
+        <v>3.229467641114</v>
       </c>
       <c r="S3">
-        <v>0.008184177860916119</v>
+        <v>0.001152166444150808</v>
       </c>
       <c r="T3">
-        <v>0.008184177860916119</v>
+        <v>0.001152166444150808</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.84976866666667</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H4">
-        <v>65.549306</v>
+        <v>1155.157411</v>
       </c>
       <c r="I4">
-        <v>0.05020018890879543</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J4">
-        <v>0.05020018890879543</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.502633333333333</v>
+        <v>0.6957970000000001</v>
       </c>
       <c r="N4">
-        <v>10.5079</v>
+        <v>2.087391</v>
       </c>
       <c r="O4">
-        <v>0.820695084116189</v>
+        <v>0.9232770860517062</v>
       </c>
       <c r="P4">
-        <v>0.820695084116189</v>
+        <v>0.9232770860517063</v>
       </c>
       <c r="Q4">
-        <v>76.53172805748889</v>
+        <v>267.9183537005224</v>
       </c>
       <c r="R4">
-        <v>688.7855525174</v>
+        <v>2411.265183304702</v>
       </c>
       <c r="S4">
-        <v>0.04119904825915244</v>
+        <v>0.8602590708091119</v>
       </c>
       <c r="T4">
-        <v>0.04119904825915244</v>
+        <v>0.8602590708091119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06945599999999999</v>
+        <v>0.05781966666666667</v>
       </c>
       <c r="N5">
-        <v>0.208368</v>
+        <v>0.173459</v>
       </c>
       <c r="O5">
-        <v>0.0162740978965466</v>
+        <v>0.07672291394829377</v>
       </c>
       <c r="P5">
-        <v>0.0162740978965466</v>
+        <v>0.07672291394829378</v>
       </c>
       <c r="Q5">
-        <v>26.744204379472</v>
+        <v>22.26360548384989</v>
       </c>
       <c r="R5">
-        <v>240.697839415248</v>
+        <v>200.372449354649</v>
       </c>
       <c r="S5">
-        <v>0.01439711077809231</v>
+        <v>0.07148621325064529</v>
       </c>
       <c r="T5">
-        <v>0.01439711077809231</v>
+        <v>0.07148621325064529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>385.0524703333334</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H6">
-        <v>1155.157411</v>
+        <v>66.002657</v>
       </c>
       <c r="I6">
-        <v>0.8846641374295412</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J6">
-        <v>0.8846641374295412</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,27 +806,27 @@
         <v>2.087391</v>
       </c>
       <c r="O6">
-        <v>0.1630308179872645</v>
+        <v>0.9232770860517062</v>
       </c>
       <c r="P6">
-        <v>0.1630308179872644</v>
+        <v>0.9232770860517063</v>
       </c>
       <c r="Q6">
-        <v>267.9183537005224</v>
+        <v>15.30815024420967</v>
       </c>
       <c r="R6">
-        <v>2411.265183304702</v>
+        <v>137.773352197887</v>
       </c>
       <c r="S6">
-        <v>0.1442275179691359</v>
+        <v>0.04915294127109445</v>
       </c>
       <c r="T6">
-        <v>0.1442275179691358</v>
+        <v>0.04915294127109445</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>385.0524703333334</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H7">
-        <v>1155.157411</v>
+        <v>66.002657</v>
       </c>
       <c r="I7">
-        <v>0.8846641374295412</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J7">
-        <v>0.8846641374295412</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.502633333333333</v>
+        <v>0.05781966666666667</v>
       </c>
       <c r="N7">
-        <v>10.5079</v>
+        <v>0.173459</v>
       </c>
       <c r="O7">
-        <v>0.820695084116189</v>
+        <v>0.07672291394829377</v>
       </c>
       <c r="P7">
-        <v>0.820695084116189</v>
+        <v>0.07672291394829378</v>
       </c>
       <c r="Q7">
-        <v>1348.697617671878</v>
+        <v>1.272083875618111</v>
       </c>
       <c r="R7">
-        <v>12138.2785590469</v>
+        <v>11.448754880563</v>
       </c>
       <c r="S7">
-        <v>0.726039508682313</v>
+        <v>0.004084534253497678</v>
       </c>
       <c r="T7">
-        <v>0.726039508682313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>28.350479</v>
-      </c>
-      <c r="H8">
-        <v>85.05143699999999</v>
-      </c>
-      <c r="I8">
-        <v>0.06513567366166337</v>
-      </c>
-      <c r="J8">
-        <v>0.06513567366166337</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.06945599999999999</v>
-      </c>
-      <c r="N8">
-        <v>0.208368</v>
-      </c>
-      <c r="O8">
-        <v>0.0162740978965466</v>
-      </c>
-      <c r="P8">
-        <v>0.0162740978965466</v>
-      </c>
-      <c r="Q8">
-        <v>1.969110869423999</v>
-      </c>
-      <c r="R8">
-        <v>17.721997824816</v>
-      </c>
-      <c r="S8">
-        <v>0.001060024329727422</v>
-      </c>
-      <c r="T8">
-        <v>0.001060024329727422</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>28.350479</v>
-      </c>
-      <c r="H9">
-        <v>85.05143699999999</v>
-      </c>
-      <c r="I9">
-        <v>0.06513567366166337</v>
-      </c>
-      <c r="J9">
-        <v>0.06513567366166337</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.6957970000000001</v>
-      </c>
-      <c r="N9">
-        <v>2.087391</v>
-      </c>
-      <c r="O9">
-        <v>0.1630308179872645</v>
-      </c>
-      <c r="P9">
-        <v>0.1630308179872644</v>
-      </c>
-      <c r="Q9">
-        <v>19.726178236763</v>
-      </c>
-      <c r="R9">
-        <v>177.535604130867</v>
-      </c>
-      <c r="S9">
-        <v>0.0106191221572125</v>
-      </c>
-      <c r="T9">
-        <v>0.01061912215721249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>28.350479</v>
-      </c>
-      <c r="H10">
-        <v>85.05143699999999</v>
-      </c>
-      <c r="I10">
-        <v>0.06513567366166337</v>
-      </c>
-      <c r="J10">
-        <v>0.06513567366166337</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.502633333333333</v>
-      </c>
-      <c r="N10">
-        <v>10.5079</v>
-      </c>
-      <c r="O10">
-        <v>0.820695084116189</v>
-      </c>
-      <c r="P10">
-        <v>0.820695084116189</v>
-      </c>
-      <c r="Q10">
-        <v>99.30133276136665</v>
-      </c>
-      <c r="R10">
-        <v>893.7119948522999</v>
-      </c>
-      <c r="S10">
-        <v>0.05345652717472345</v>
-      </c>
-      <c r="T10">
-        <v>0.05345652717472345</v>
+        <v>0.004084534253497678</v>
       </c>
     </row>
   </sheetData>
